--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Rd523a59fdec145a5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Rd25861c774134d4f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Rd25861c774134d4f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R86184c701c4f430f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R86184c701c4f430f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R3dea3dde13ed447c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R3dea3dde13ed447c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R9af27ab107b64a15"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R9af27ab107b64a15"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R7480b7cbc0b54ca1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R7480b7cbc0b54ca1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R627f2117b4dd4d4b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R627f2117b4dd4d4b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R9f7721c7b9364b24"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R9f7721c7b9364b24"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Rc5397516deac4867"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Rc5397516deac4867"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R3b11042327c3454e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R3b11042327c3454e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R2042c2f7742c49bb"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R2042c2f7742c49bb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Re05fd906a1f0487f"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Re05fd906a1f0487f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R1df6dd0f23ad47f5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R1df6dd0f23ad47f5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R220cd19d871848b0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R220cd19d871848b0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R004777cea9e94363"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R004777cea9e94363"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R86166c90abb24bf4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R86166c90abb24bf4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Rb497f13c273a494b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Rb497f13c273a494b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R9d6df97d21fd4abe"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R9d6df97d21fd4abe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R0121295fd7fa47d5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R0121295fd7fa47d5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R90d2a973c4cc4bc2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R90d2a973c4cc4bc2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R6179244ac45d49d6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R6179244ac45d49d6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Rb4314023cba14697"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Rb4314023cba14697"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Reba2c7a207cb4405"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Reba2c7a207cb4405"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R909ea8a13332475a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R909ea8a13332475a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Rfb21224f67dc4aad"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Rfb21224f67dc4aad"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R8455aca7148a4513"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R8455aca7148a4513"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R9cfe8f617008447e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R9cfe8f617008447e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R2f19b0dbb00f41b6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R2f19b0dbb00f41b6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R1c2afb61485842f2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R1c2afb61485842f2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R8799abacce744044"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R8799abacce744044"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Rae8c0fdc8c7f46ba"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="Rae8c0fdc8c7f46ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R28ba05a410e741a5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R28ba05a410e741a5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R5869d8796e4941cb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R5869d8796e4941cb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R61f5026dc7d741b0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R61f5026dc7d741b0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R873c101e16b44009"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R873c101e16b44009"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R82e824e6ad6e4a8f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R82e824e6ad6e4a8f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R3f12d2afb7e14df4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R3f12d2afb7e14df4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R14e81747eb93476e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/38_DataValidation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R14e81747eb93476e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Validation" sheetId="1" r:id="R0ac965338f58410b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
